--- a/public/uploads/${ID_ORDEN_SERVICIO} Orden Upgrade ${ID_ORDEN_SERVICIO_LETRAS} ${NODO_CIU_NOMBRE} ${ID_ORDEN_SERVICIO}.xlsx
+++ b/public/uploads/${ID_ORDEN_SERVICIO} Orden Upgrade ${ID_ORDEN_SERVICIO_LETRAS} ${NODO_CIU_NOMBRE} ${ID_ORDEN_SERVICIO}.xlsx
@@ -51,7 +51,23 @@
     <t xml:space="preserve">CELULAR</t>
   </si>
   <si>
-    <t xml:space="preserve">﻿${ID_SERVICIO}</t>
+    <r>
+      <rPr>
+        <sz val="3.9"/>
+        <rFont val=".AppleSystemUIFont"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">﻿</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">${ID_ORDEN_SERVICIO}</t>
+    </r>
   </si>
   <si>
     <t xml:space="preserve">﻿${NODO_CIU_NOMBRE}</t>
@@ -83,7 +99,7 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="@"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="7">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -111,6 +127,11 @@
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="3.9"/>
+      <name val=".AppleSystemUIFont"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
@@ -250,20 +271,20 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -285,8 +306,8 @@
   </sheetPr>
   <dimension ref="A1:H4"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="D1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D4" activeCellId="0" sqref="D4"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A4" activeCellId="0" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -341,29 +362,29 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" s="11" customFormat="true" ht="27" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="27" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="7" t="s">
+      <c r="B4" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="8" t="s">
+      <c r="C4" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="8" t="s">
+      <c r="D4" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="E4" s="8" t="s">
+      <c r="E4" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="F4" s="8" t="s">
+      <c r="F4" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="G4" s="9" t="s">
+      <c r="G4" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="H4" s="10" t="s">
+      <c r="H4" s="11" t="s">
         <v>16</v>
       </c>
     </row>
@@ -395,7 +416,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="A4 A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -421,7 +442,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="A4 A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
